--- a/Pokemon/Tabelle tiro.xlsx
+++ b/Pokemon/Tabelle tiro.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.scuri\Downloads\diaryDome\Pokemon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C034ED9C-D548-4C91-BC63-8088DA564B34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8460"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Pokemon</t>
   </si>
@@ -28,13 +45,103 @@
   </si>
   <si>
     <t>TotOccorrenze</t>
+  </si>
+  <si>
+    <t>Pyukumuku</t>
+  </si>
+  <si>
+    <t>Primarina</t>
+  </si>
+  <si>
+    <t>Wimpod</t>
+  </si>
+  <si>
+    <t>Slowking</t>
+  </si>
+  <si>
+    <t>Basculin</t>
+  </si>
+  <si>
+    <t>Shellder</t>
+  </si>
+  <si>
+    <t>Corsola</t>
+  </si>
+  <si>
+    <t>Dewott</t>
+  </si>
+  <si>
+    <t>Samurott</t>
+  </si>
+  <si>
+    <t>Jellicent</t>
+  </si>
+  <si>
+    <t>Walrein</t>
+  </si>
+  <si>
+    <t>Golisopod</t>
+  </si>
+  <si>
+    <t>Remoraid</t>
+  </si>
+  <si>
+    <t>Cloyster</t>
+  </si>
+  <si>
+    <t>Relicanth</t>
+  </si>
+  <si>
+    <t>Starmie</t>
+  </si>
+  <si>
+    <t>Alomomola</t>
+  </si>
+  <si>
+    <t>Frillish</t>
+  </si>
+  <si>
+    <t>Clawitzer</t>
+  </si>
+  <si>
+    <t>Wailmer</t>
+  </si>
+  <si>
+    <t>Dragalge</t>
+  </si>
+  <si>
+    <t>Bruxish</t>
+  </si>
+  <si>
+    <t>Carvanha</t>
+  </si>
+  <si>
+    <t>Chinchou</t>
+  </si>
+  <si>
+    <t>Tentacool</t>
+  </si>
+  <si>
+    <t>Finneon</t>
+  </si>
+  <si>
+    <t>Horsea</t>
+  </si>
+  <si>
+    <t>Luvdisc</t>
+  </si>
+  <si>
+    <t>Spheal</t>
+  </si>
+  <si>
+    <t>Oshawatt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,21 +178,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -127,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,9 +275,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,6 +327,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,22 +520,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,283 +550,728 @@
       </c>
       <c r="G1">
         <f>SUM(B:B)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
       <c r="C2" s="1">
         <f>IF($G$1&gt;0,B2/$G$1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1457725947521866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C47" si="0">IF($G$1&gt;0,B3/$G$1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <f>IF($G$1&gt;0,B3/$G$1,0)</f>
+        <v>0.11661807580174927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <f>IF($G$1&gt;0,B4/$G$1,0)</f>
+        <v>8.7463556851311949E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f>IF($G$1&gt;0,B5/$G$1,0)</f>
+        <v>7.2886297376093298E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <f>IF($G$1&gt;0,B6/$G$1,0)</f>
+        <v>7.2886297376093298E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <f>IF($G$1&gt;0,B7/$G$1,0)</f>
+        <v>7.2886297376093298E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <f>IF($G$1&gt;0,B8/$G$1,0)</f>
+        <v>5.8309037900874633E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <f>IF($G$1&gt;0,B9/$G$1,0)</f>
+        <v>5.1020408163265307E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <f>IF($G$1&gt;0,B10/$G$1,0)</f>
+        <v>4.3731778425655975E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f>IF($G$1&gt;0,B11/$G$1,0)</f>
+        <v>4.3731778425655975E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <f>IF($G$1&gt;0,B12/$G$1,0)</f>
+        <v>4.3731778425655975E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f>IF($G$1&gt;0,B13/$G$1,0)</f>
+        <v>3.6443148688046649E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <f>IF($G$1&gt;0,B14/$G$1,0)</f>
+        <v>2.9154518950437316E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <f>IF($G$1&gt;0,B15/$G$1,0)</f>
+        <v>1.8950437317784258E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <f>IF($G$1&gt;0,B16/$G$1,0)</f>
+        <v>1.8950437317784258E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
+        <f>IF($G$1&gt;0,B17/$G$1,0)</f>
+        <v>1.8950437317784258E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
+        <f>IF($G$1&gt;0,B18/$G$1,0)</f>
+        <v>1.8950437317784258E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
+        <f>IF($G$1&gt;0,B19/$G$1,0)</f>
+        <v>1.4577259475218658E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+        <f>IF($G$1&gt;0,B20/$G$1,0)</f>
+        <v>1.4577259475218658E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
+        <f>IF($G$1&gt;0,B21/$G$1,0)</f>
+        <v>4.3731778425655978E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
+        <f>IF($G$1&gt;0,B22/$G$1,0)</f>
+        <v>2.9154518950437317E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
+        <f>IF($G$1&gt;0,B23/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
+        <f>IF($G$1&gt;0,B24/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+        <f>IF($G$1&gt;0,B25/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
+        <f>IF($G$1&gt;0,B26/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+        <f>IF($G$1&gt;0,B27/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
+        <f>IF($G$1&gt;0,B28/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
+        <f>IF($G$1&gt;0,B29/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
+        <f>IF($G$1&gt;0,B30/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
+        <f>IF($G$1&gt;0,B31/$G$1,0)</f>
+        <v>1.4577259475218659E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
+        <f>IF($G$1&gt;0,B32/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
+        <f>IF($G$1&gt;0,B33/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
+        <f>IF($G$1&gt;0,B34/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
+        <f>IF($G$1&gt;0,B35/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
+        <f>IF($G$1&gt;0,B36/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
+        <f>IF($G$1&gt;0,B37/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
+        <f>IF($G$1&gt;0,B38/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
+        <f>IF($G$1&gt;0,B39/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
+        <f>IF($G$1&gt;0,B40/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
+        <f>IF($G$1&gt;0,B41/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
+        <f>IF($G$1&gt;0,B42/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
+        <f>IF($G$1&gt;0,B43/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
+        <f>IF($G$1&gt;0,B44/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
+        <f>IF($G$1&gt;0,B45/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
+        <f>IF($G$1&gt;0,B46/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF($G$1&gt;0,B47/$G$1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{F544D707-72B7-46B6-BF79-C538DB4B14D5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -682,25 +1279,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
